--- a/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/5/parameters.xlsx
+++ b/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/5/parameters.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1881881881881882</v>
+        <v>0.5416541654165417</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1183.183183183183</v>
+        <v>1312.511251125112</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.03333333333333333</v>
+        <v>0.06454645464546455</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.4264264264264264</v>
+        <v>0.8827882788278828</v>
       </c>
     </row>
     <row r="6">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>306.3063063063063</v>
+        <v>909.2909290929093</v>
       </c>
     </row>
     <row r="7">
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>272.2722722722723</v>
+        <v>284.9684968496849</v>
       </c>
     </row>
     <row r="8">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>61.06106106106107</v>
+        <v>465.4815481548155</v>
       </c>
     </row>
   </sheetData>
